--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -640,31 +640,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 199-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 199-2023.xlsx", "A 199-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 199-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 199-2023.png", "A 199-2023")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/knärot/A 199-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/knärot/A 199-2023.png", "A 199-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 199-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 199-2023.docx", "A 199-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 199-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 199-2023.docx", "A 199-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 199-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 199-2023.docx", "A 199-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 199-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 199-2023.docx", "A 199-2023")</f>
         <v/>
       </c>
     </row>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,31 +742,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 6469-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 6469-2022.xlsx", "A 6469-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 6469-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 6469-2022.png", "A 6469-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/knärot/A 6469-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/knärot/A 6469-2022.png", "A 6469-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 6469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 6469-2022.docx", "A 6469-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 6469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 6469-2022.docx", "A 6469-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 6469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 6469-2022.docx", "A 6469-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 6469-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 6469-2022.docx", "A 6469-2022")</f>
         <v/>
       </c>
     </row>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -840,31 +840,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 59601-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 59601-2022.xlsx", "A 59601-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 59601-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 59601-2022.png", "A 59601-2022")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/knärot/A 59601-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/knärot/A 59601-2022.png", "A 59601-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 59601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 59601-2022.docx", "A 59601-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 59601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 59601-2022.docx", "A 59601-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 59601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 59601-2022.docx", "A 59601-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 59601-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 59601-2022.docx", "A 59601-2022")</f>
         <v/>
       </c>
     </row>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,27 +935,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 43450-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 43450-2022.xlsx", "A 43450-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 43450-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 43450-2022.png", "A 43450-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 43450-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 43450-2022.docx", "A 43450-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 43450-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 43450-2022.docx", "A 43450-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 43450-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 43450-2022.docx", "A 43450-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 43450-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 43450-2022.docx", "A 43450-2022")</f>
         <v/>
       </c>
     </row>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,27 +1022,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 41152-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 41152-2022.xlsx", "A 41152-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 41152-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 41152-2022.png", "A 41152-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 41152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 41152-2022.docx", "A 41152-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 41152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 41152-2022.docx", "A 41152-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 41152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 41152-2022.docx", "A 41152-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 41152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 41152-2022.docx", "A 41152-2022")</f>
         <v/>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,27 +1108,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 6454-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 6454-2022.xlsx", "A 6454-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 6454-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 6454-2022.png", "A 6454-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 6454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 6454-2022.docx", "A 6454-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 6454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 6454-2022.docx", "A 6454-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 6454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 6454-2022.docx", "A 6454-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 6454-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 6454-2022.docx", "A 6454-2022")</f>
         <v/>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,27 +1193,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 33928-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 33928-2018.xlsx", "A 33928-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 33928-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 33928-2018.png", "A 33928-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 33928-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 33928-2018.docx", "A 33928-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 33928-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 33928-2018.docx", "A 33928-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 33928-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 33928-2018.docx", "A 33928-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 33928-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 33928-2018.docx", "A 33928-2018")</f>
         <v/>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,27 +1278,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 910-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 910-2020.xlsx", "A 910-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 910-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 910-2020.png", "A 910-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 910-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 910-2020.docx", "A 910-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 910-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 910-2020.docx", "A 910-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 910-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 910-2020.docx", "A 910-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 910-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 910-2020.docx", "A 910-2020")</f>
         <v/>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,27 +1363,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 67174-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 67174-2020.xlsx", "A 67174-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 67174-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 67174-2020.png", "A 67174-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 67174-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 67174-2020.docx", "A 67174-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 67174-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 67174-2020.docx", "A 67174-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 67174-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 67174-2020.docx", "A 67174-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 67174-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 67174-2020.docx", "A 67174-2020")</f>
         <v/>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1453,27 +1453,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 40355-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 40355-2022.xlsx", "A 40355-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 40355-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 40355-2022.png", "A 40355-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 40355-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 40355-2022.docx", "A 40355-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 40355-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 40355-2022.docx", "A 40355-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 40355-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 40355-2022.docx", "A 40355-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 40355-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 40355-2022.docx", "A 40355-2022")</f>
         <v/>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,27 +1538,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 4113-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 4113-2023.xlsx", "A 4113-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 4113-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 4113-2023.png", "A 4113-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 4113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 4113-2023.docx", "A 4113-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 4113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 4113-2023.docx", "A 4113-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 4113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 4113-2023.docx", "A 4113-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 4113-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 4113-2023.docx", "A 4113-2023")</f>
         <v/>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1623,27 +1623,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 32284-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/artfynd/A 32284-2023.xlsx", "A 32284-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 32284-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/kartor/A 32284-2023.png", "A 32284-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 32284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomål/A 32284-2023.docx", "A 32284-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 32284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/klagomålsmail/A 32284-2023.docx", "A 32284-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 32284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsyn/A 32284-2023.docx", "A 32284-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 32284-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DALS-ED/tillsynsmail/A 32284-2023.docx", "A 32284-2023")</f>
         <v/>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2356,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2413,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2470,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3915,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3972,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4661,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4718,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4832,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4889,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5236,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5350,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5692,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5749,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5863,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6091,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6666,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6723,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6894,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7075,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7132,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7189,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7360,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7474,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7593,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7826,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7883,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7940,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8054,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8111,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8577,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8691,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8748,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9266,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9323,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9442,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9618,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9675,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9737,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9794,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9851,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9908,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9965,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10079,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10136,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10193,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10250,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10307,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11229,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11286,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11343,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11400,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12203,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12322,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12379,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12436,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12835,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13006,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13239,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13296,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13410,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13467,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13524,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13581,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13866,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13923,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15363,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15482,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17150,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17740,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17797,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18776,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20268,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20325,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20496,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20553,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20610,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20667,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20724,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20781,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20838,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20895,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20952,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21009,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21066,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21123,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21180,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21237,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21294,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21351,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21408,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21522,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -697,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
         <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -715,19 +715,20 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
         <is>
           <t>Liten kandelabersvamp
 Gräddporing
 Knärot
+Dofttaggsvamp
 Garnlav
 Hornvaxskinn
 Kådvaxskinn
@@ -738,6 +739,7 @@
 Gullgröppa
 Kattfotslav
 Kornknutmossa
+Stor revmossa
 Vedticka</t>
         </is>
       </c>
@@ -780,7 +782,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +880,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -969,7 +971,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1058,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,7 +1144,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1227,7 +1229,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1312,7 +1314,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1397,7 +1399,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1487,7 +1489,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1572,7 +1574,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1657,7 +1659,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1714,7 +1716,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1771,7 +1773,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1833,7 +1835,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1890,7 +1892,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1947,7 +1949,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2004,7 +2006,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2061,7 +2063,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2123,7 +2125,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2185,7 +2187,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2242,7 +2244,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2299,7 +2301,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2356,7 +2358,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2413,7 +2415,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2470,7 +2472,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2527,7 +2529,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2584,7 +2586,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2641,7 +2643,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2703,7 +2705,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2760,7 +2762,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2822,7 +2824,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2879,7 +2881,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2936,7 +2938,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2993,7 +2995,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3050,7 +3052,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3107,7 +3109,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3164,7 +3166,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3221,7 +3223,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3278,7 +3280,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3335,7 +3337,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3392,7 +3394,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3449,7 +3451,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3511,7 +3513,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3568,7 +3570,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3625,7 +3627,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3682,7 +3684,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3739,7 +3741,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3796,7 +3798,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3858,7 +3860,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3915,7 +3917,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3972,7 +3974,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4029,7 +4031,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4086,7 +4088,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4143,7 +4145,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4200,7 +4202,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4257,7 +4259,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4314,7 +4316,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4371,7 +4373,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4428,7 +4430,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4485,7 +4487,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4547,7 +4549,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4604,7 +4606,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4661,7 +4663,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4718,7 +4720,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4775,7 +4777,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4832,7 +4834,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4889,7 +4891,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4951,7 +4953,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5008,7 +5010,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5065,7 +5067,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5122,7 +5124,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5179,7 +5181,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5236,7 +5238,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5293,7 +5295,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5350,7 +5352,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5407,7 +5409,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5464,7 +5466,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5521,7 +5523,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5578,7 +5580,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5635,7 +5637,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5692,7 +5694,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5749,7 +5751,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5806,7 +5808,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5863,7 +5865,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5920,7 +5922,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5977,7 +5979,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6034,7 +6036,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6091,7 +6093,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6148,7 +6150,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6210,7 +6212,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6267,7 +6269,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6324,7 +6326,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6381,7 +6383,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6438,7 +6440,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6495,7 +6497,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6552,7 +6554,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6609,7 +6611,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6666,7 +6668,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6723,7 +6725,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6780,7 +6782,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6837,7 +6839,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6894,7 +6896,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6956,7 +6958,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7013,7 +7015,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7075,7 +7077,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7132,7 +7134,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7189,7 +7191,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7246,7 +7248,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7303,7 +7305,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7360,7 +7362,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7417,7 +7419,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7474,7 +7476,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7536,7 +7538,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7593,7 +7595,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7650,7 +7652,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7707,7 +7709,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7769,7 +7771,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7826,7 +7828,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7883,7 +7885,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7940,7 +7942,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7997,7 +7999,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8054,7 +8056,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8111,7 +8113,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8173,7 +8175,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8230,7 +8232,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8287,7 +8289,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8344,7 +8346,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8401,7 +8403,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8458,7 +8460,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8515,7 +8517,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8577,7 +8579,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8634,7 +8636,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8691,7 +8693,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8748,7 +8750,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8805,7 +8807,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8862,7 +8864,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8919,7 +8921,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8976,7 +8978,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9033,7 +9035,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9090,7 +9092,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9147,7 +9149,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9209,7 +9211,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9266,7 +9268,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9323,7 +9325,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9380,7 +9382,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9442,7 +9444,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9504,7 +9506,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9561,7 +9563,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9618,7 +9620,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9675,7 +9677,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9737,7 +9739,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9794,7 +9796,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9851,7 +9853,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9908,7 +9910,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9965,7 +9967,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10022,7 +10024,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10079,7 +10081,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10136,7 +10138,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10193,7 +10195,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10250,7 +10252,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10307,7 +10309,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10364,7 +10366,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10421,7 +10423,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10478,7 +10480,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10535,7 +10537,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10592,7 +10594,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10649,7 +10651,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10706,7 +10708,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10763,7 +10765,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10820,7 +10822,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10882,7 +10884,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10939,7 +10941,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10996,7 +10998,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11058,7 +11060,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11115,7 +11117,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11172,7 +11174,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11229,7 +11231,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11286,7 +11288,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11343,7 +11345,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11400,7 +11402,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11457,7 +11459,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11514,7 +11516,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11571,7 +11573,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11628,7 +11630,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11685,7 +11687,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11742,7 +11744,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11799,7 +11801,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11856,7 +11858,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11913,7 +11915,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11975,7 +11977,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12032,7 +12034,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12089,7 +12091,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12146,7 +12148,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12203,7 +12205,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12260,7 +12262,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12322,7 +12324,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12379,7 +12381,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12436,7 +12438,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12493,7 +12495,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12550,7 +12552,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12607,7 +12609,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12664,7 +12666,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12721,7 +12723,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12778,7 +12780,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12835,7 +12837,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12892,7 +12894,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12949,7 +12951,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13006,7 +13008,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13068,7 +13070,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13125,7 +13127,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13182,7 +13184,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13239,7 +13241,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13296,7 +13298,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13353,7 +13355,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13410,7 +13412,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13467,7 +13469,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13524,7 +13526,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13581,7 +13583,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13638,7 +13640,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13695,7 +13697,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13752,7 +13754,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13809,7 +13811,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13866,7 +13868,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13923,7 +13925,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13980,7 +13982,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14037,7 +14039,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14094,7 +14096,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14151,7 +14153,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14208,7 +14210,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14265,7 +14267,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14322,7 +14324,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14384,7 +14386,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14441,7 +14443,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14498,7 +14500,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14555,7 +14557,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14612,7 +14614,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14669,7 +14671,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14726,7 +14728,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14783,7 +14785,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14840,7 +14842,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14897,7 +14899,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14954,7 +14956,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15016,7 +15018,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15078,7 +15080,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15135,7 +15137,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15192,7 +15194,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15249,7 +15251,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15306,7 +15308,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15363,7 +15365,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15420,7 +15422,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15482,7 +15484,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15544,7 +15546,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15601,7 +15603,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15658,7 +15660,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15715,7 +15717,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15772,7 +15774,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15829,7 +15831,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15886,7 +15888,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15943,7 +15945,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16000,7 +16002,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16057,7 +16059,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16114,7 +16116,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16171,7 +16173,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16228,7 +16230,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16285,7 +16287,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16342,7 +16344,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16399,7 +16401,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16456,7 +16458,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16513,7 +16515,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16570,7 +16572,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16627,7 +16629,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16684,7 +16686,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16741,7 +16743,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16798,7 +16800,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16855,7 +16857,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16917,7 +16919,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16974,7 +16976,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17031,7 +17033,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17093,7 +17095,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17150,7 +17152,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17212,7 +17214,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17269,7 +17271,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17326,7 +17328,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17388,7 +17390,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17445,7 +17447,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17507,7 +17509,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17569,7 +17571,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17626,7 +17628,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17683,7 +17685,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17740,7 +17742,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17797,7 +17799,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17854,7 +17856,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17911,7 +17913,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17968,7 +17970,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18030,7 +18032,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18087,7 +18089,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18144,7 +18146,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18201,7 +18203,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18258,7 +18260,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18315,7 +18317,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18372,7 +18374,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18429,7 +18431,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18486,7 +18488,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18543,7 +18545,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18600,7 +18602,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18657,7 +18659,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18714,7 +18716,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18776,7 +18778,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18838,7 +18840,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18895,7 +18897,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18952,7 +18954,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19009,7 +19011,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19066,7 +19068,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19123,7 +19125,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19180,7 +19182,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19237,7 +19239,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19294,7 +19296,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19351,7 +19353,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19408,7 +19410,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19465,7 +19467,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19522,7 +19524,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19579,7 +19581,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19636,7 +19638,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19693,7 +19695,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19750,7 +19752,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19807,7 +19809,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19864,7 +19866,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19921,7 +19923,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19978,7 +19980,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20035,7 +20037,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20092,7 +20094,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20149,7 +20151,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20206,7 +20208,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20268,7 +20270,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20325,7 +20327,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20382,7 +20384,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20439,7 +20441,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20496,7 +20498,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20553,7 +20555,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20610,7 +20612,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20667,7 +20669,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20724,7 +20726,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20781,7 +20783,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20838,7 +20840,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20895,7 +20897,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20952,7 +20954,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21009,7 +21011,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21066,7 +21068,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21123,7 +21125,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21180,7 +21182,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21237,7 +21239,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21294,7 +21296,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21351,7 +21353,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21408,7 +21410,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21465,7 +21467,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21522,7 +21524,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>

--- a/Översikt DALS-ED.xlsx
+++ b/Översikt DALS-ED.xlsx
@@ -572,7 +572,7 @@
         <v>44928</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>44601</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44907</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>44835</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44825</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         <v>44601</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>43314</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>43839</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44180</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         <v>44818</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1489,7 +1489,7 @@
         <v>44952</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1574,7 +1574,7 @@
         <v>45120</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1659,7 +1659,7 @@
         <v>43319</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>43321</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>43327</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         <v>43350</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>43384</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         <v>43396</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>43417</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43417</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>43417</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         <v>43418</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>43419</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>43420</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2358,7 +2358,7 @@
         <v>43423</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>43424</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
         <v>43425</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
         <v>43426</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>43426</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>43434</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43439</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43441</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>43451</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>43452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>43453</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>43453</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         <v>43453</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         <v>43465</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>43465</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3223,7 +3223,7 @@
         <v>43472</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         <v>43475</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>43475</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>43475</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>43476</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>43487</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>43490</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43490</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         <v>43494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3741,7 +3741,7 @@
         <v>43495</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3798,7 +3798,7 @@
         <v>43503</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3860,7 +3860,7 @@
         <v>43507</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
         <v>43507</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>43516</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4031,7 +4031,7 @@
         <v>43523</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         <v>43525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         <v>43525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>43536</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>43537</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>43537</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43538</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>43538</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
         <v>43542</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>43544</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>43549</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>43549</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43551</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>43551</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         <v>43553</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4891,7 +4891,7 @@
         <v>43558</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>43566</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>43566</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         <v>43570</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>43578</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         <v>43587</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         <v>43587</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5295,7 +5295,7 @@
         <v>43587</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>43587</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         <v>43587</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>43587</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5523,7 +5523,7 @@
         <v>43591</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         <v>43610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         <v>43612</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
         <v>43633</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>43633</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>43643</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5865,7 +5865,7 @@
         <v>43644</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>43651</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
         <v>43651</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         <v>43685</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6093,7 +6093,7 @@
         <v>43685</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>43689</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6212,7 +6212,7 @@
         <v>43698</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>43707</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6326,7 +6326,7 @@
         <v>43720</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         <v>43720</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6440,7 +6440,7 @@
         <v>43725</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
         <v>43740</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6554,7 +6554,7 @@
         <v>43741</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6611,7 +6611,7 @@
         <v>43747</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
         <v>43766</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6725,7 +6725,7 @@
         <v>43766</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>43769</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6839,7 +6839,7 @@
         <v>43769</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6896,7 +6896,7 @@
         <v>43776</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         <v>43783</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7015,7 +7015,7 @@
         <v>43787</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7077,7 +7077,7 @@
         <v>43787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7134,7 +7134,7 @@
         <v>43803</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7191,7 +7191,7 @@
         <v>43816</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         <v>43851</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7305,7 +7305,7 @@
         <v>43857</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         <v>43866</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7419,7 +7419,7 @@
         <v>43871</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         <v>43872</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>43872</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>43872</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>43886</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>43886</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7771,7 +7771,7 @@
         <v>43886</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
         <v>43889</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>43894</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7999,7 +7999,7 @@
         <v>43899</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         <v>43901</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8113,7 +8113,7 @@
         <v>43901</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43901</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43908</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43908</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43909</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43915</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43915</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43915</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8579,7 +8579,7 @@
         <v>43917</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8636,7 +8636,7 @@
         <v>43918</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8693,7 +8693,7 @@
         <v>43923</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         <v>43924</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>43927</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>43936</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>43945</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43945</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43950</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9092,7 +9092,7 @@
         <v>43955</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9149,7 +9149,7 @@
         <v>43959</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>43964</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>43983</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>43987</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44014</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44014</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>44021</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44022</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>44022</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         <v>44047</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9739,7 +9739,7 @@
         <v>44049</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9796,7 +9796,7 @@
         <v>44049</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9853,7 +9853,7 @@
         <v>44062</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9910,7 +9910,7 @@
         <v>44069</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9967,7 +9967,7 @@
         <v>44077</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10024,7 +10024,7 @@
         <v>44092</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44109</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44109</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44109</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>44124</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>44124</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>44124</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44132</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44132</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>44133</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>44133</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>44139</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44151</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44165</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44168</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10884,7 +10884,7 @@
         <v>44180</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10941,7 +10941,7 @@
         <v>44182</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44182</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44188</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44217</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44217</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44217</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44218</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44222</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44228</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44230</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44230</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44232</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44236</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44236</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44236</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44237</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44237</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>44249</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44257</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44264</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44264</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44266</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44266</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44273</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12324,7 +12324,7 @@
         <v>44277</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44277</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44295</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44299</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>44300</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>44326</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>44328</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>44349</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>44364</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12837,7 +12837,7 @@
         <v>44368</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>44378</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12951,7 +12951,7 @@
         <v>44382</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>44386</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44388</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44412</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44412</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44427</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44428</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44435</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44442</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13469,7 +13469,7 @@
         <v>44442</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44442</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44446</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13640,7 +13640,7 @@
         <v>44452</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13697,7 +13697,7 @@
         <v>44452</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13754,7 +13754,7 @@
         <v>44459</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44459</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44460</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44462</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44462</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44468</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44470</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44480</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44487</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44494</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44503</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14386,7 +14386,7 @@
         <v>44504</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>44511</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14500,7 +14500,7 @@
         <v>44533</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44536</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14614,7 +14614,7 @@
         <v>44536</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14671,7 +14671,7 @@
         <v>44536</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14728,7 +14728,7 @@
         <v>44578</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44578</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44592</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14899,7 +14899,7 @@
         <v>44592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14956,7 +14956,7 @@
         <v>44600</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>44600</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>44608</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44613</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15194,7 +15194,7 @@
         <v>44614</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15251,7 +15251,7 @@
         <v>44615</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15308,7 +15308,7 @@
         <v>44615</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15365,7 +15365,7 @@
         <v>44615</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15422,7 +15422,7 @@
         <v>44621</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15484,7 +15484,7 @@
         <v>44657</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15546,7 +15546,7 @@
         <v>44659</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15603,7 +15603,7 @@
         <v>44685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15660,7 +15660,7 @@
         <v>44685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15717,7 +15717,7 @@
         <v>44685</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15774,7 +15774,7 @@
         <v>44685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>44690</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>44690</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15945,7 +15945,7 @@
         <v>44701</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16002,7 +16002,7 @@
         <v>44701</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16059,7 +16059,7 @@
         <v>44705</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>44705</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16173,7 +16173,7 @@
         <v>44705</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>44733</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16287,7 +16287,7 @@
         <v>44735</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16344,7 +16344,7 @@
         <v>44743</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>44776</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>44776</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16515,7 +16515,7 @@
         <v>44784</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44789</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44796</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44812</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16743,7 +16743,7 @@
         <v>44823</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16800,7 +16800,7 @@
         <v>44823</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16857,7 +16857,7 @@
         <v>44823</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44823</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44826</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17033,7 +17033,7 @@
         <v>44832</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>44833</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>44841</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17214,7 +17214,7 @@
         <v>44855</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>44858</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17328,7 +17328,7 @@
         <v>44865</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17390,7 +17390,7 @@
         <v>44873</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17447,7 +17447,7 @@
         <v>44887</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17509,7 +17509,7 @@
         <v>44895</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>44901</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>44902</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>44902</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>44904</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>44908</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>44908</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>44910</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>44910</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>44937</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44949</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>44952</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18317,7 +18317,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18374,7 +18374,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18431,7 +18431,7 @@
         <v>44952</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18488,7 +18488,7 @@
         <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18545,7 +18545,7 @@
         <v>44952</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>44959</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>44960</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>44970</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18778,7 +18778,7 @@
         <v>44972</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>44977</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>44986</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>44987</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>44993</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>44994</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>44999</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>45006</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>45007</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19296,7 +19296,7 @@
         <v>45008</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19353,7 +19353,7 @@
         <v>45008</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19410,7 +19410,7 @@
         <v>45008</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19467,7 +19467,7 @@
         <v>45011</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19524,7 +19524,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19581,7 +19581,7 @@
         <v>45014</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19638,7 +19638,7 @@
         <v>45016</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19695,7 +19695,7 @@
         <v>45016</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>45019</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19809,7 +19809,7 @@
         <v>45034</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19866,7 +19866,7 @@
         <v>45047</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19923,7 +19923,7 @@
         <v>45047</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19980,7 +19980,7 @@
         <v>45047</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20037,7 +20037,7 @@
         <v>45049</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20094,7 +20094,7 @@
         <v>45049</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20151,7 +20151,7 @@
         <v>45049</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20208,7 +20208,7 @@
         <v>45054</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20270,7 +20270,7 @@
         <v>45055</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20327,7 +20327,7 @@
         <v>45057</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20384,7 +20384,7 @@
         <v>45058</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20441,7 +20441,7 @@
         <v>45069</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20498,7 +20498,7 @@
         <v>45070</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20555,7 +20555,7 @@
         <v>45070</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>45075</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>45075</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45078</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20783,7 +20783,7 @@
         <v>45079</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20840,7 +20840,7 @@
         <v>45089</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20897,7 +20897,7 @@
         <v>45103</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20954,7 +20954,7 @@
         <v>45103</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>45104</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>45106</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>45112</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>45118</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>45119</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21296,7 +21296,7 @@
         <v>45126</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21353,7 +21353,7 @@
         <v>45147</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21410,7 +21410,7 @@
         <v>45151</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21467,7 +21467,7 @@
         <v>45151</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21524,7 +21524,7 @@
         <v>45151</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
